--- a/src/main/resources/resource/EquipEnhanceResource.xlsx
+++ b/src/main/resources/resource/EquipEnhanceResource.xlsx
@@ -31,25 +31,25 @@
     <t>enhanceAttrs</t>
   </si>
   <si>
-    <t>[{"itemId":"i2001","quantity":2}]</t>
+    <t>[{"itemId":"2001","quantity":2}]</t>
   </si>
   <si>
     <t>[{"type": "ATTACK","value": 100},{"type": "DEFENSE","value": 50}]</t>
   </si>
   <si>
-    <t>[{"itemId":"i2001","quantity":3}]</t>
+    <t>[{"itemId":"2001","quantity":3}]</t>
   </si>
   <si>
     <t>[{"type": "ATTACK","value": 200},{"type": "DEFENSE","value": 60}]</t>
   </si>
   <si>
-    <t>[{"itemId":"i2001","quantity":4}]</t>
+    <t>[{"itemId":"2001","quantity":4}]</t>
   </si>
   <si>
     <t>[{"type": "ATTACK","value": 300},{"type": "DEFENSE","value": 70}]</t>
   </si>
   <si>
-    <t>[{"itemId":"i2001","quantity":5}]</t>
+    <t>[{"itemId":"2001","quantity":5}]</t>
   </si>
   <si>
     <t>[{"type": "ATTACK","value": 400},{"type": "DEFENSE","value": 80}]</t>
@@ -60,12 +60,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,7 +83,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,7 +105,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,120 +166,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,37 +227,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,145 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,25 +423,23 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -481,8 +472,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,175 +518,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -996,8 +989,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>

--- a/src/main/resources/resource/EquipEnhanceResource.xlsx
+++ b/src/main/resources/resource/EquipEnhanceResource.xlsx
@@ -60,9 +60,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -75,20 +75,103 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -96,23 +179,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,93 +211,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,55 +227,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,127 +395,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,39 +418,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -471,20 +438,59 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,17 +510,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,145 +524,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -990,7 +990,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>

--- a/src/main/resources/resource/EquipEnhanceResource.xlsx
+++ b/src/main/resources/resource/EquipEnhanceResource.xlsx
@@ -34,25 +34,25 @@
     <t>[{"itemId":"2001","quantity":2}]</t>
   </si>
   <si>
-    <t>[{"type": "ATTACK","value": 100},{"type": "DEFENSE","value": 50}]</t>
+    <t>[{"type": "ATTACK_UPPER","value": 100},{"type": "DEFENSE_UPPER","value": 50}]</t>
   </si>
   <si>
     <t>[{"itemId":"2001","quantity":3}]</t>
   </si>
   <si>
-    <t>[{"type": "ATTACK","value": 200},{"type": "DEFENSE","value": 60}]</t>
+    <t>[{"type": "ATTACK_UPPER","value": 200},{"type": "DEFENSE_UPPER","value": 60}]</t>
   </si>
   <si>
     <t>[{"itemId":"2001","quantity":4}]</t>
   </si>
   <si>
-    <t>[{"type": "ATTACK","value": 300},{"type": "DEFENSE","value": 70}]</t>
+    <t>[{"type": "ATTACK_UPPER","value": 300},{"type": "DEFENSE_UPPER","value": 70}]</t>
   </si>
   <si>
     <t>[{"itemId":"2001","quantity":5}]</t>
   </si>
   <si>
-    <t>[{"type": "ATTACK","value": 400},{"type": "DEFENSE","value": 80}]</t>
+    <t>[{"type": "ATTACK_UPPER","value": 400},{"type": "DEFENSE_UPPER","value": 80}]</t>
   </si>
 </sst>
 </file>
@@ -60,9 +60,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -75,29 +75,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,9 +141,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,82 +217,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -227,187 +227,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,16 +422,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,17 +456,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,25 +495,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -524,10 +524,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -536,133 +536,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -989,15 +989,15 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="4" max="4" width="50.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="61.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="86" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/src/main/resources/resource/EquipEnhanceResource.xlsx
+++ b/src/main/resources/resource/EquipEnhanceResource.xlsx
@@ -60,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -82,19 +82,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -104,7 +111,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,14 +119,77 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,80 +211,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -227,169 +227,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,61 +421,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,6 +441,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,7 +488,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,10 +524,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -536,133 +536,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -989,8 +989,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
